--- a/src/main/insert Entgeltdaten/4 tariflicher Verguetungsbestandteil.xlsx
+++ b/src/main/insert Entgeltdaten/4 tariflicher Verguetungsbestandteil.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\main\insert Entgeltdaten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfr\PycharmProjects\Personalstammdatenbank\src\test\testdaten_insert_tariflicher_verguetungsbestandteil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C4BAF4-F397-4610-9C88-03B79AFE4060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA400E4-691B-46BB-95F1-3203FD0D2946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1932" yWindow="3504" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Daten</t>
   </si>
@@ -35,48 +34,6 @@
   </si>
   <si>
     <t>Verguetungsbestandteil</t>
-  </si>
-  <si>
-    <t>Auszahlungsmonat</t>
-  </si>
-  <si>
-    <t>jeden Monat</t>
-  </si>
-  <si>
-    <t>Januar</t>
-  </si>
-  <si>
-    <t>Februar</t>
-  </si>
-  <si>
-    <t>Maerz</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Mai</t>
-  </si>
-  <si>
-    <t>Juni</t>
-  </si>
-  <si>
-    <t>Juli</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Oktober</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>Dezember</t>
   </si>
   <si>
     <t>Grundgehalt</t>
@@ -423,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,140 +405,35 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3330.18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3330.18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4BBF2768-B556-43DB-BEEE-D5589936A1EB}">
-          <x14:formula1>
-            <xm:f>Tabelle2!$A$2:$A$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD6FBB-D542-41AD-844E-DA831E4E2A77}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>